--- a/database/industries/methanol/shefan/product/yearly_seprated.xlsx
+++ b/database/industries/methanol/shefan/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shefan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE93718-38DC-4AF0-A3FF-C558EF9870D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA395CE2-3B00-4455-B0AB-ACB2AE7A9383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شفن-پتروشیمی فناوران</t>
@@ -37,21 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -104,9 +89,6 @@
   </si>
   <si>
     <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -660,16 +642,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N95"/>
+  <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -678,13 +660,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,13 +672,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -712,13 +684,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -727,13 +694,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -744,13 +706,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -761,13 +718,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -776,13 +728,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -803,23 +750,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -828,15 +760,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -845,171 +772,106 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11">
+        <v>16</v>
+      </c>
+      <c r="G11" s="11">
         <v>18</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="11">
-        <v>16</v>
-      </c>
-      <c r="L11" s="11">
-        <v>18</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="H11" s="11">
         <v>18763</v>
       </c>
-      <c r="N11" s="11">
+      <c r="I11" s="11">
         <v>14487</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="13">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13">
         <v>195</v>
       </c>
-      <c r="L12" s="13">
+      <c r="G12" s="13">
         <v>229</v>
       </c>
-      <c r="M12" s="13">
+      <c r="H12" s="13">
         <v>235206</v>
       </c>
-      <c r="N12" s="13">
+      <c r="I12" s="13">
         <v>216980</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="11">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11">
         <v>84</v>
       </c>
-      <c r="L13" s="11">
+      <c r="G13" s="11">
         <v>83</v>
       </c>
-      <c r="M13" s="11">
+      <c r="H13" s="11">
         <v>81012</v>
       </c>
-      <c r="N13" s="11">
+      <c r="I13" s="11">
         <v>82483</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="13">
+        <v>13</v>
+      </c>
+      <c r="F14" s="13">
         <v>75</v>
       </c>
-      <c r="L14" s="13">
+      <c r="G14" s="13">
         <v>90</v>
       </c>
-      <c r="M14" s="13">
+      <c r="H14" s="13">
         <v>70918</v>
       </c>
-      <c r="N14" s="13">
+      <c r="I14" s="13">
         <v>38886</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1017,36 +879,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="15">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="G15" s="15">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="H15" s="15">
-        <v>0</v>
+        <v>405899</v>
       </c>
       <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
-        <v>370</v>
-      </c>
-      <c r="L15" s="15">
-        <v>420</v>
-      </c>
-      <c r="M15" s="15">
-        <v>405899</v>
-      </c>
-      <c r="N15" s="15">
         <v>352836</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1055,93 +902,58 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="11">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11">
         <v>719</v>
       </c>
-      <c r="L17" s="11">
+      <c r="G17" s="11">
         <v>690</v>
       </c>
-      <c r="M17" s="11">
+      <c r="H17" s="11">
         <v>675489</v>
       </c>
-      <c r="N17" s="11">
+      <c r="I17" s="11">
         <v>607771</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="13">
+        <v>13</v>
+      </c>
+      <c r="F18" s="13">
         <v>16</v>
       </c>
-      <c r="L18" s="13">
+      <c r="G18" s="13">
         <v>12</v>
       </c>
-      <c r="M18" s="13">
+      <c r="H18" s="13">
         <v>73888</v>
       </c>
-      <c r="N18" s="13">
+      <c r="I18" s="13">
         <v>56901</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1149,36 +961,21 @@
         <v>0</v>
       </c>
       <c r="F19" s="15">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="G19" s="15">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="H19" s="15">
-        <v>0</v>
+        <v>749377</v>
       </c>
       <c r="I19" s="15">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0</v>
-      </c>
-      <c r="K19" s="15">
-        <v>735</v>
-      </c>
-      <c r="L19" s="15">
-        <v>702</v>
-      </c>
-      <c r="M19" s="15">
-        <v>749377</v>
-      </c>
-      <c r="N19" s="15">
         <v>664672</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -1187,15 +984,10 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1214,101 +1006,54 @@
       <c r="I21" s="15">
         <v>0</v>
       </c>
-      <c r="J21" s="15">
-        <v>0</v>
-      </c>
-      <c r="K21" s="15">
-        <v>0</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0</v>
-      </c>
-      <c r="N21" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="19">
-        <v>0</v>
-      </c>
-      <c r="L22" s="19">
-        <v>0</v>
-      </c>
-      <c r="M22" s="19">
-        <v>0</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="15">
-        <v>0</v>
-      </c>
-      <c r="L23" s="15">
-        <v>0</v>
-      </c>
-      <c r="M23" s="15">
-        <v>0</v>
-      </c>
-      <c r="N23" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -1316,34 +1061,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="19">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="G24" s="19">
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="H24" s="19">
-        <v>0</v>
+        <v>1155276</v>
       </c>
       <c r="I24" s="19">
-        <v>0</v>
-      </c>
-      <c r="J24" s="19">
-        <v>0</v>
-      </c>
-      <c r="K24" s="19">
-        <v>1105</v>
-      </c>
-      <c r="L24" s="19">
-        <v>1122</v>
-      </c>
-      <c r="M24" s="19">
-        <v>1155276</v>
-      </c>
-      <c r="N24" s="19">
         <v>1017508</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1352,13 +1082,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1367,13 +1092,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1382,15 +1102,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1409,23 +1124,8 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1434,15 +1134,10 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1451,171 +1146,106 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="11">
+        <v>13</v>
+      </c>
+      <c r="F31" s="11">
         <v>269383</v>
       </c>
-      <c r="L31" s="11">
+      <c r="G31" s="11">
         <v>507202</v>
       </c>
-      <c r="M31" s="11">
+      <c r="H31" s="11">
         <v>494490</v>
       </c>
-      <c r="N31" s="11">
+      <c r="I31" s="11">
         <v>1053829</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="13">
+        <v>13</v>
+      </c>
+      <c r="F32" s="13">
         <v>4101979</v>
       </c>
-      <c r="L32" s="13">
+      <c r="G32" s="13">
         <v>5542500</v>
       </c>
-      <c r="M32" s="13">
+      <c r="H32" s="13">
         <v>10858052</v>
       </c>
-      <c r="N32" s="13">
+      <c r="I32" s="13">
         <v>16779376</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="11">
+        <v>13</v>
+      </c>
+      <c r="F33" s="11">
         <v>3361796</v>
       </c>
-      <c r="L33" s="11">
+      <c r="G33" s="11">
         <v>3805672</v>
       </c>
-      <c r="M33" s="11">
+      <c r="H33" s="11">
         <v>7172949</v>
       </c>
-      <c r="N33" s="11">
+      <c r="I33" s="11">
         <v>17488625</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="13">
+        <v>13</v>
+      </c>
+      <c r="F34" s="13">
         <v>50788</v>
       </c>
-      <c r="L34" s="13">
+      <c r="G34" s="13">
         <v>412839</v>
       </c>
-      <c r="M34" s="13">
+      <c r="H34" s="13">
         <v>393453</v>
       </c>
-      <c r="N34" s="13">
+      <c r="I34" s="13">
         <v>348254</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1623,36 +1253,21 @@
         <v>0</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>7783946</v>
       </c>
       <c r="G35" s="15">
-        <v>0</v>
+        <v>10268213</v>
       </c>
       <c r="H35" s="15">
-        <v>0</v>
+        <v>18918944</v>
       </c>
       <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>7783946</v>
-      </c>
-      <c r="L35" s="15">
-        <v>10268213</v>
-      </c>
-      <c r="M35" s="15">
-        <v>18918944</v>
-      </c>
-      <c r="N35" s="15">
         <v>35670084</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1661,93 +1276,58 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="11">
+        <v>13</v>
+      </c>
+      <c r="F37" s="11">
         <v>18111968</v>
       </c>
-      <c r="L37" s="11">
+      <c r="G37" s="11">
         <v>18402376</v>
       </c>
-      <c r="M37" s="11">
+      <c r="H37" s="11">
         <v>30884891</v>
       </c>
-      <c r="N37" s="11">
+      <c r="I37" s="11">
         <v>47312348</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="13">
+        <v>13</v>
+      </c>
+      <c r="F38" s="13">
         <v>609094</v>
       </c>
-      <c r="L38" s="13">
+      <c r="G38" s="13">
         <v>475308</v>
       </c>
-      <c r="M38" s="13">
+      <c r="H38" s="13">
         <v>5406106</v>
       </c>
-      <c r="N38" s="13">
+      <c r="I38" s="13">
         <v>11016257</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -1755,36 +1335,21 @@
         <v>0</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>18721062</v>
       </c>
       <c r="G39" s="15">
-        <v>0</v>
+        <v>18877684</v>
       </c>
       <c r="H39" s="15">
-        <v>0</v>
+        <v>36290997</v>
       </c>
       <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15">
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
-        <v>18721062</v>
-      </c>
-      <c r="L39" s="15">
-        <v>18877684</v>
-      </c>
-      <c r="M39" s="15">
-        <v>36290997</v>
-      </c>
-      <c r="N39" s="15">
         <v>58328605</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1793,15 +1358,10 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -1820,103 +1380,58 @@
       <c r="I41" s="15">
         <v>0</v>
       </c>
-      <c r="J41" s="15">
-        <v>0</v>
-      </c>
-      <c r="K41" s="15">
-        <v>0</v>
-      </c>
-      <c r="L41" s="15">
-        <v>0</v>
-      </c>
-      <c r="M41" s="15">
-        <v>0</v>
-      </c>
-      <c r="N41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="19">
-        <v>0</v>
-      </c>
-      <c r="L42" s="19">
-        <v>0</v>
-      </c>
-      <c r="M42" s="19">
-        <v>0</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15">
-        <v>0</v>
-      </c>
-      <c r="N43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -1924,34 +1439,19 @@
         <v>0</v>
       </c>
       <c r="F44" s="19">
-        <v>0</v>
+        <v>26505008</v>
       </c>
       <c r="G44" s="19">
-        <v>0</v>
+        <v>29145897</v>
       </c>
       <c r="H44" s="19">
-        <v>0</v>
+        <v>55209941</v>
       </c>
       <c r="I44" s="19">
-        <v>0</v>
-      </c>
-      <c r="J44" s="19">
-        <v>0</v>
-      </c>
-      <c r="K44" s="19">
-        <v>26505008</v>
-      </c>
-      <c r="L44" s="19">
-        <v>29145897</v>
-      </c>
-      <c r="M44" s="19">
-        <v>55209941</v>
-      </c>
-      <c r="N44" s="19">
         <v>93998689</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1960,13 +1460,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1975,13 +1470,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1990,15 +1480,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2017,23 +1502,8 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2042,15 +1512,10 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2059,171 +1524,106 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="11">
+        <v>13</v>
+      </c>
+      <c r="F51" s="11">
         <v>16836437500</v>
       </c>
-      <c r="L51" s="11">
+      <c r="G51" s="11">
         <v>28177888889</v>
       </c>
-      <c r="M51" s="11">
+      <c r="H51" s="11">
         <v>26354528</v>
       </c>
-      <c r="N51" s="11">
+      <c r="I51" s="11">
         <v>72743080</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" s="13">
+        <v>13</v>
+      </c>
+      <c r="F52" s="13">
         <v>21035789744</v>
       </c>
-      <c r="L52" s="13">
+      <c r="G52" s="13">
         <v>24203056769</v>
       </c>
-      <c r="M52" s="13">
+      <c r="H52" s="13">
         <v>46164009</v>
       </c>
-      <c r="N52" s="13">
+      <c r="I52" s="13">
         <v>77331441</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="11">
+        <v>13</v>
+      </c>
+      <c r="F53" s="11">
         <v>40021380952</v>
       </c>
-      <c r="L53" s="11">
+      <c r="G53" s="11">
         <v>45851469880</v>
       </c>
-      <c r="M53" s="11">
+      <c r="H53" s="11">
         <v>88541809</v>
       </c>
-      <c r="N53" s="11">
+      <c r="I53" s="11">
         <v>212027024</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="13">
+        <v>13</v>
+      </c>
+      <c r="F54" s="13">
         <v>677173333</v>
       </c>
-      <c r="L54" s="13">
+      <c r="G54" s="13">
         <v>4587100000</v>
       </c>
-      <c r="M54" s="13">
+      <c r="H54" s="13">
         <v>5547999</v>
       </c>
-      <c r="N54" s="13">
+      <c r="I54" s="13">
         <v>8955768</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2232,91 +1632,56 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="11">
+        <v>13</v>
+      </c>
+      <c r="F56" s="11">
         <v>25190497914</v>
       </c>
-      <c r="L56" s="11">
+      <c r="G56" s="11">
         <v>26670110145</v>
       </c>
-      <c r="M56" s="11">
+      <c r="H56" s="11">
         <v>45722271</v>
       </c>
-      <c r="N56" s="11">
+      <c r="I56" s="11">
         <v>77845682</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="13">
+        <v>13</v>
+      </c>
+      <c r="F57" s="13">
         <v>38068375000</v>
       </c>
-      <c r="L57" s="13">
+      <c r="G57" s="13">
         <v>39609000000</v>
       </c>
-      <c r="M57" s="13">
+      <c r="H57" s="13">
         <v>73166225</v>
       </c>
-      <c r="N57" s="13">
+      <c r="I57" s="13">
         <v>193603926</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2325,13 +1690,8 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2340,13 +1700,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2355,15 +1710,10 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2382,23 +1732,8 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2407,15 +1742,10 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2424,171 +1754,106 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="11">
+        <v>13</v>
+      </c>
+      <c r="F64" s="11">
         <v>-259875</v>
       </c>
-      <c r="L64" s="11">
+      <c r="G64" s="11">
         <v>-335341</v>
       </c>
-      <c r="M64" s="11">
+      <c r="H64" s="11">
         <v>-456677</v>
       </c>
-      <c r="N64" s="11">
+      <c r="I64" s="11">
         <v>-1018870</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="13">
+        <v>13</v>
+      </c>
+      <c r="F65" s="13">
         <v>-1783446</v>
       </c>
-      <c r="L65" s="13">
+      <c r="G65" s="13">
         <v>-2486596</v>
       </c>
-      <c r="M65" s="13">
+      <c r="H65" s="13">
         <v>-4508767</v>
       </c>
-      <c r="N65" s="13">
+      <c r="I65" s="13">
         <v>-11568583</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" s="11">
+        <v>13</v>
+      </c>
+      <c r="F66" s="11">
         <v>-1696187</v>
       </c>
-      <c r="L66" s="11">
+      <c r="G66" s="11">
         <v>-2282483</v>
       </c>
-      <c r="M66" s="11">
+      <c r="H66" s="11">
         <v>-2962374</v>
       </c>
-      <c r="N66" s="11">
+      <c r="I66" s="11">
         <v>-8023597</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="13">
+        <v>13</v>
+      </c>
+      <c r="F67" s="13">
         <v>-29436</v>
       </c>
-      <c r="L67" s="13">
+      <c r="G67" s="13">
         <v>-231857</v>
       </c>
-      <c r="M67" s="13">
+      <c r="H67" s="13">
         <v>-241955</v>
       </c>
-      <c r="N67" s="13">
+      <c r="I67" s="13">
         <v>-248994</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -2596,36 +1861,21 @@
         <v>0</v>
       </c>
       <c r="F68" s="15">
-        <v>0</v>
+        <v>-3768944</v>
       </c>
       <c r="G68" s="15">
-        <v>0</v>
+        <v>-5336277</v>
       </c>
       <c r="H68" s="15">
-        <v>0</v>
+        <v>-8169773</v>
       </c>
       <c r="I68" s="15">
-        <v>0</v>
-      </c>
-      <c r="J68" s="15">
-        <v>0</v>
-      </c>
-      <c r="K68" s="15">
-        <v>-3768944</v>
-      </c>
-      <c r="L68" s="15">
-        <v>-5336277</v>
-      </c>
-      <c r="M68" s="15">
-        <v>-8169773</v>
-      </c>
-      <c r="N68" s="15">
         <v>-20860044</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -2634,93 +1884,58 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="11">
+        <v>13</v>
+      </c>
+      <c r="F70" s="11">
         <v>-6558203</v>
       </c>
-      <c r="L70" s="11">
+      <c r="G70" s="11">
         <v>-7493032</v>
       </c>
-      <c r="M70" s="11">
+      <c r="H70" s="11">
         <v>-12948749</v>
       </c>
-      <c r="N70" s="11">
+      <c r="I70" s="11">
         <v>-32404041</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="13">
+        <v>13</v>
+      </c>
+      <c r="F71" s="13">
         <v>-324708</v>
       </c>
-      <c r="L71" s="13">
+      <c r="G71" s="13">
         <v>-341752</v>
       </c>
-      <c r="M71" s="13">
+      <c r="H71" s="13">
         <v>-2701877</v>
       </c>
-      <c r="N71" s="13">
+      <c r="I71" s="13">
         <v>-5535100</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -2728,36 +1943,21 @@
         <v>0</v>
       </c>
       <c r="F72" s="15">
-        <v>0</v>
+        <v>-6882911</v>
       </c>
       <c r="G72" s="15">
-        <v>0</v>
+        <v>-7834784</v>
       </c>
       <c r="H72" s="15">
-        <v>0</v>
+        <v>-15650626</v>
       </c>
       <c r="I72" s="15">
-        <v>0</v>
-      </c>
-      <c r="J72" s="15">
-        <v>0</v>
-      </c>
-      <c r="K72" s="15">
-        <v>-6882911</v>
-      </c>
-      <c r="L72" s="15">
-        <v>-7834784</v>
-      </c>
-      <c r="M72" s="15">
-        <v>-15650626</v>
-      </c>
-      <c r="N72" s="15">
         <v>-37939141</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -2766,15 +1966,10 @@
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2793,103 +1988,58 @@
       <c r="I74" s="15">
         <v>0</v>
       </c>
-      <c r="J74" s="15">
-        <v>0</v>
-      </c>
-      <c r="K74" s="15">
-        <v>0</v>
-      </c>
-      <c r="L74" s="15">
-        <v>0</v>
-      </c>
-      <c r="M74" s="15">
-        <v>0</v>
-      </c>
-      <c r="N74" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F75" s="19">
+        <v>0</v>
+      </c>
+      <c r="G75" s="19">
+        <v>0</v>
+      </c>
+      <c r="H75" s="19">
+        <v>0</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" s="19">
-        <v>0</v>
-      </c>
-      <c r="L75" s="19">
-        <v>0</v>
-      </c>
-      <c r="M75" s="19">
-        <v>0</v>
-      </c>
-      <c r="N75" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K76" s="15">
-        <v>0</v>
-      </c>
-      <c r="L76" s="15">
-        <v>0</v>
-      </c>
-      <c r="M76" s="15">
-        <v>0</v>
-      </c>
-      <c r="N76" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F76" s="15">
+        <v>0</v>
+      </c>
+      <c r="G76" s="15">
+        <v>0</v>
+      </c>
+      <c r="H76" s="15">
+        <v>0</v>
+      </c>
+      <c r="I76" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
@@ -2897,34 +2047,19 @@
         <v>0</v>
       </c>
       <c r="F77" s="19">
-        <v>0</v>
+        <v>-10651855</v>
       </c>
       <c r="G77" s="19">
-        <v>0</v>
+        <v>-13171061</v>
       </c>
       <c r="H77" s="19">
-        <v>0</v>
+        <v>-23820399</v>
       </c>
       <c r="I77" s="19">
-        <v>0</v>
-      </c>
-      <c r="J77" s="19">
-        <v>0</v>
-      </c>
-      <c r="K77" s="19">
-        <v>-10651855</v>
-      </c>
-      <c r="L77" s="19">
-        <v>-13171061</v>
-      </c>
-      <c r="M77" s="19">
-        <v>-23820399</v>
-      </c>
-      <c r="N77" s="19">
         <v>-58799185</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2933,13 +2068,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2948,13 +2078,8 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2963,15 +2088,10 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2990,23 +2110,8 @@
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3015,15 +2120,10 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -3032,171 +2132,106 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" s="11">
+        <v>13</v>
+      </c>
+      <c r="F84" s="11">
         <v>9508</v>
       </c>
-      <c r="L84" s="11">
+      <c r="G84" s="11">
         <v>171861</v>
       </c>
-      <c r="M84" s="11">
+      <c r="H84" s="11">
         <v>37813</v>
       </c>
-      <c r="N84" s="11">
+      <c r="I84" s="11">
         <v>34959</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K85" s="13">
+        <v>13</v>
+      </c>
+      <c r="F85" s="13">
         <v>2318533</v>
       </c>
-      <c r="L85" s="13">
+      <c r="G85" s="13">
         <v>3055904</v>
       </c>
-      <c r="M85" s="13">
+      <c r="H85" s="13">
         <v>6349285</v>
       </c>
-      <c r="N85" s="13">
+      <c r="I85" s="13">
         <v>5210793</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" s="11">
+        <v>13</v>
+      </c>
+      <c r="F86" s="11">
         <v>1665609</v>
       </c>
-      <c r="L86" s="11">
+      <c r="G86" s="11">
         <v>1523189</v>
       </c>
-      <c r="M86" s="11">
+      <c r="H86" s="11">
         <v>4210575</v>
       </c>
-      <c r="N86" s="11">
+      <c r="I86" s="11">
         <v>9465028</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J87" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K87" s="13">
+        <v>13</v>
+      </c>
+      <c r="F87" s="13">
         <v>21352</v>
       </c>
-      <c r="L87" s="13">
+      <c r="G87" s="13">
         <v>180982</v>
       </c>
-      <c r="M87" s="13">
+      <c r="H87" s="13">
         <v>151498</v>
       </c>
-      <c r="N87" s="13">
+      <c r="I87" s="13">
         <v>99260</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
@@ -3204,36 +2239,21 @@
         <v>0</v>
       </c>
       <c r="F88" s="15">
-        <v>0</v>
+        <v>4015002</v>
       </c>
       <c r="G88" s="15">
-        <v>0</v>
+        <v>4931936</v>
       </c>
       <c r="H88" s="15">
-        <v>0</v>
+        <v>10749171</v>
       </c>
       <c r="I88" s="15">
-        <v>0</v>
-      </c>
-      <c r="J88" s="15">
-        <v>0</v>
-      </c>
-      <c r="K88" s="15">
-        <v>4015002</v>
-      </c>
-      <c r="L88" s="15">
-        <v>4931936</v>
-      </c>
-      <c r="M88" s="15">
-        <v>10749171</v>
-      </c>
-      <c r="N88" s="15">
         <v>14810040</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -3242,93 +2262,58 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K90" s="11">
+        <v>13</v>
+      </c>
+      <c r="F90" s="11">
         <v>11553765</v>
       </c>
-      <c r="L90" s="11">
+      <c r="G90" s="11">
         <v>10909344</v>
       </c>
-      <c r="M90" s="11">
+      <c r="H90" s="11">
         <v>17936142</v>
       </c>
-      <c r="N90" s="11">
+      <c r="I90" s="11">
         <v>14908307</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K91" s="13">
+        <v>13</v>
+      </c>
+      <c r="F91" s="13">
         <v>284386</v>
       </c>
-      <c r="L91" s="13">
+      <c r="G91" s="13">
         <v>133556</v>
       </c>
-      <c r="M91" s="13">
+      <c r="H91" s="13">
         <v>2704229</v>
       </c>
-      <c r="N91" s="13">
+      <c r="I91" s="13">
         <v>5481157</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -3336,36 +2321,21 @@
         <v>0</v>
       </c>
       <c r="F92" s="15">
-        <v>0</v>
+        <v>11838151</v>
       </c>
       <c r="G92" s="15">
-        <v>0</v>
+        <v>11042900</v>
       </c>
       <c r="H92" s="15">
-        <v>0</v>
+        <v>20640371</v>
       </c>
       <c r="I92" s="15">
-        <v>0</v>
-      </c>
-      <c r="J92" s="15">
-        <v>0</v>
-      </c>
-      <c r="K92" s="15">
-        <v>11838151</v>
-      </c>
-      <c r="L92" s="15">
-        <v>11042900</v>
-      </c>
-      <c r="M92" s="15">
-        <v>20640371</v>
-      </c>
-      <c r="N92" s="15">
         <v>20389464</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -3374,15 +2344,10 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
@@ -3401,25 +2366,10 @@
       <c r="I94" s="15">
         <v>0</v>
       </c>
-      <c r="J94" s="15">
-        <v>0</v>
-      </c>
-      <c r="K94" s="15">
-        <v>0</v>
-      </c>
-      <c r="L94" s="15">
-        <v>0</v>
-      </c>
-      <c r="M94" s="15">
-        <v>0</v>
-      </c>
-      <c r="N94" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
@@ -3427,30 +2377,15 @@
         <v>0</v>
       </c>
       <c r="F95" s="19">
-        <v>0</v>
+        <v>15853153</v>
       </c>
       <c r="G95" s="19">
-        <v>0</v>
+        <v>15974836</v>
       </c>
       <c r="H95" s="19">
-        <v>0</v>
+        <v>31389542</v>
       </c>
       <c r="I95" s="19">
-        <v>0</v>
-      </c>
-      <c r="J95" s="19">
-        <v>0</v>
-      </c>
-      <c r="K95" s="19">
-        <v>15853153</v>
-      </c>
-      <c r="L95" s="19">
-        <v>15974836</v>
-      </c>
-      <c r="M95" s="19">
-        <v>31389542</v>
-      </c>
-      <c r="N95" s="19">
         <v>35199504</v>
       </c>
     </row>

--- a/database/industries/methanol/shefan/product/yearly_seprated.xlsx
+++ b/database/industries/methanol/shefan/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA395CE2-3B00-4455-B0AB-ACB2AE7A9383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D50E21-5A1B-45A5-BC7C-8F1FD993ADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,34 +61,37 @@
     <t>تن</t>
   </si>
   <si>
+    <t>متانول</t>
+  </si>
+  <si>
+    <t>اسید استیک</t>
+  </si>
+  <si>
+    <t>محصولات فرعی</t>
+  </si>
+  <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>جمع فروش خدمات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>متانول</t>
-  </si>
-  <si>
-    <t>اسید استیک</t>
-  </si>
-  <si>
-    <t>محصولات فرعی</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جمع فروش خدمات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -646,12 +649,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -661,7 +664,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,7 +676,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -685,7 +688,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -695,7 +698,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +710,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -719,7 +722,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,7 +732,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -751,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -761,7 +764,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -773,7 +776,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -781,119 +784,119 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11">
+        <v>18763</v>
+      </c>
+      <c r="H11" s="11">
+        <v>14487</v>
+      </c>
+      <c r="I11" s="11">
+        <v>13643</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>16</v>
-      </c>
-      <c r="G11" s="11">
-        <v>18</v>
-      </c>
-      <c r="H11" s="11">
-        <v>18763</v>
-      </c>
-      <c r="I11" s="11">
-        <v>14487</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>195</v>
       </c>
       <c r="F12" s="13">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="G12" s="13">
-        <v>229</v>
+        <v>235206</v>
       </c>
       <c r="H12" s="13">
-        <v>235206</v>
+        <v>216980</v>
       </c>
       <c r="I12" s="13">
-        <v>216980</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>241256</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>84</v>
       </c>
       <c r="F13" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="11">
-        <v>83</v>
+        <v>81012</v>
       </c>
       <c r="H13" s="11">
-        <v>81012</v>
+        <v>82483</v>
       </c>
       <c r="I13" s="11">
-        <v>82483</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>105774</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>75</v>
       </c>
       <c r="F14" s="13">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G14" s="13">
-        <v>90</v>
+        <v>70918</v>
       </c>
       <c r="H14" s="13">
-        <v>70918</v>
+        <v>38886</v>
       </c>
       <c r="I14" s="13">
-        <v>38886</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38620</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="F15" s="15">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="G15" s="15">
-        <v>420</v>
+        <v>405899</v>
       </c>
       <c r="H15" s="15">
-        <v>405899</v>
+        <v>352836</v>
       </c>
       <c r="I15" s="15">
-        <v>352836</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>399293</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -903,79 +906,79 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
+      <c r="E17" s="11">
+        <v>719</v>
       </c>
       <c r="F17" s="11">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="G17" s="11">
-        <v>690</v>
+        <v>675489</v>
       </c>
       <c r="H17" s="11">
-        <v>675489</v>
+        <v>607771</v>
       </c>
       <c r="I17" s="11">
-        <v>607771</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>558535</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
+      <c r="E18" s="13">
+        <v>16</v>
       </c>
       <c r="F18" s="13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G18" s="13">
-        <v>12</v>
+        <v>73888</v>
       </c>
       <c r="H18" s="13">
-        <v>73888</v>
+        <v>56901</v>
       </c>
       <c r="I18" s="13">
-        <v>56901</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25417</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="F19" s="15">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="G19" s="15">
-        <v>702</v>
+        <v>749377</v>
       </c>
       <c r="H19" s="15">
-        <v>749377</v>
+        <v>664672</v>
       </c>
       <c r="I19" s="15">
-        <v>664672</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>583952</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -985,9 +988,9 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1007,14 +1010,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="19" t="s">
-        <v>13</v>
+      <c r="E22" s="19">
+        <v>0</v>
       </c>
       <c r="F22" s="19">
         <v>0</v>
@@ -1022,21 +1027,21 @@
       <c r="G22" s="19">
         <v>0</v>
       </c>
-      <c r="H22" s="19">
-        <v>0</v>
+      <c r="H22" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
-        <v>13</v>
+      <c r="E23" s="15">
+        <v>0</v>
       </c>
       <c r="F23" s="15">
         <v>0</v>
@@ -1051,29 +1056,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="F24" s="19">
-        <v>1105</v>
+        <v>1122</v>
       </c>
       <c r="G24" s="19">
-        <v>1122</v>
+        <v>1155276</v>
       </c>
       <c r="H24" s="19">
-        <v>1155276</v>
+        <v>1017508</v>
       </c>
       <c r="I24" s="19">
-        <v>1017508</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>983245</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1083,7 +1088,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1093,7 +1098,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1103,9 +1108,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1125,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1135,9 +1140,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1147,127 +1152,127 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="11">
+        <v>269383</v>
+      </c>
+      <c r="F31" s="11">
+        <v>507202</v>
+      </c>
+      <c r="G31" s="11">
+        <v>494490</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1053829</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1647923</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="11">
-        <v>269383</v>
-      </c>
-      <c r="G31" s="11">
-        <v>507202</v>
-      </c>
-      <c r="H31" s="11">
-        <v>494490</v>
-      </c>
-      <c r="I31" s="11">
-        <v>1053829</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13">
+        <v>4101979</v>
+      </c>
+      <c r="F32" s="13">
+        <v>5542500</v>
+      </c>
+      <c r="G32" s="13">
+        <v>10858052</v>
+      </c>
+      <c r="H32" s="13">
+        <v>16779376</v>
+      </c>
+      <c r="I32" s="13">
+        <v>18628809</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="13">
-        <v>4101979</v>
-      </c>
-      <c r="G32" s="13">
-        <v>5542500</v>
-      </c>
-      <c r="H32" s="13">
-        <v>10858052</v>
-      </c>
-      <c r="I32" s="13">
-        <v>16779376</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11">
+        <v>3361796</v>
+      </c>
+      <c r="F33" s="11">
+        <v>3805672</v>
+      </c>
+      <c r="G33" s="11">
+        <v>7172949</v>
+      </c>
+      <c r="H33" s="11">
+        <v>17488625</v>
+      </c>
+      <c r="I33" s="11">
+        <v>13387455</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="11">
-        <v>3361796</v>
-      </c>
-      <c r="G33" s="11">
-        <v>3805672</v>
-      </c>
-      <c r="H33" s="11">
-        <v>7172949</v>
-      </c>
-      <c r="I33" s="11">
-        <v>17488625</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13">
+        <v>50788</v>
+      </c>
+      <c r="F34" s="13">
+        <v>412839</v>
+      </c>
+      <c r="G34" s="13">
+        <v>393453</v>
+      </c>
+      <c r="H34" s="13">
+        <v>348254</v>
+      </c>
+      <c r="I34" s="13">
+        <v>318275</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="13">
-        <v>50788</v>
-      </c>
-      <c r="G34" s="13">
-        <v>412839</v>
-      </c>
-      <c r="H34" s="13">
-        <v>393453</v>
-      </c>
-      <c r="I34" s="13">
-        <v>348254</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>0</v>
+        <v>7783946</v>
       </c>
       <c r="F35" s="15">
-        <v>7783946</v>
+        <v>10268213</v>
       </c>
       <c r="G35" s="15">
-        <v>10268213</v>
+        <v>18918944</v>
       </c>
       <c r="H35" s="15">
-        <v>18918944</v>
+        <v>35670084</v>
       </c>
       <c r="I35" s="15">
-        <v>35670084</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33982462</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1277,79 +1282,79 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11">
+        <v>18111968</v>
+      </c>
+      <c r="F37" s="11">
+        <v>18402376</v>
+      </c>
+      <c r="G37" s="11">
+        <v>30884891</v>
+      </c>
+      <c r="H37" s="11">
+        <v>47312348</v>
+      </c>
+      <c r="I37" s="11">
+        <v>45455706</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="11">
-        <v>18111968</v>
-      </c>
-      <c r="G37" s="11">
-        <v>18402376</v>
-      </c>
-      <c r="H37" s="11">
-        <v>30884891</v>
-      </c>
-      <c r="I37" s="11">
-        <v>47312348</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="C38" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>13</v>
+      <c r="E38" s="13">
+        <v>609094</v>
       </c>
       <c r="F38" s="13">
-        <v>609094</v>
+        <v>475308</v>
       </c>
       <c r="G38" s="13">
-        <v>475308</v>
+        <v>5406106</v>
       </c>
       <c r="H38" s="13">
-        <v>5406106</v>
+        <v>11016257</v>
       </c>
       <c r="I38" s="13">
-        <v>11016257</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3458255</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>18721062</v>
       </c>
       <c r="F39" s="15">
-        <v>18721062</v>
+        <v>18877684</v>
       </c>
       <c r="G39" s="15">
-        <v>18877684</v>
+        <v>36290997</v>
       </c>
       <c r="H39" s="15">
-        <v>36290997</v>
+        <v>58328605</v>
       </c>
       <c r="I39" s="15">
-        <v>58328605</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48913961</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1359,9 +1364,9 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -1381,16 +1386,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="19"/>
-      <c r="E42" s="19" t="s">
-        <v>13</v>
+      <c r="E42" s="19">
+        <v>0</v>
       </c>
       <c r="F42" s="19">
         <v>0</v>
@@ -1398,23 +1403,23 @@
       <c r="G42" s="19">
         <v>0</v>
       </c>
-      <c r="H42" s="19">
-        <v>0</v>
+      <c r="H42" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
-        <v>13</v>
+      <c r="E43" s="15">
+        <v>0</v>
       </c>
       <c r="F43" s="15">
         <v>0</v>
@@ -1429,29 +1434,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19">
-        <v>0</v>
+        <v>26505008</v>
       </c>
       <c r="F44" s="19">
-        <v>26505008</v>
+        <v>29145897</v>
       </c>
       <c r="G44" s="19">
-        <v>29145897</v>
+        <v>55209941</v>
       </c>
       <c r="H44" s="19">
-        <v>55209941</v>
+        <v>93998689</v>
       </c>
       <c r="I44" s="19">
-        <v>93998689</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>82896423</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1461,7 +1466,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1471,7 +1476,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1481,9 +1486,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1503,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1513,9 +1518,9 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1525,105 +1530,105 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="11">
+        <v>16836437500</v>
+      </c>
+      <c r="F51" s="11">
+        <v>28177888889</v>
+      </c>
+      <c r="G51" s="11">
+        <v>26354528</v>
+      </c>
+      <c r="H51" s="11">
+        <v>72743080</v>
+      </c>
+      <c r="I51" s="11">
+        <v>120788903</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="11">
-        <v>16836437500</v>
-      </c>
-      <c r="G51" s="11">
-        <v>28177888889</v>
-      </c>
-      <c r="H51" s="11">
-        <v>26354528</v>
-      </c>
-      <c r="I51" s="11">
-        <v>72743080</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
+      <c r="C52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13">
+        <v>21035789744</v>
+      </c>
+      <c r="F52" s="13">
+        <v>24203056769</v>
+      </c>
+      <c r="G52" s="13">
+        <v>46164009</v>
+      </c>
+      <c r="H52" s="13">
+        <v>77331441</v>
+      </c>
+      <c r="I52" s="13">
+        <v>77215941</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="13">
-        <v>21035789744</v>
-      </c>
-      <c r="G52" s="13">
-        <v>24203056769</v>
-      </c>
-      <c r="H52" s="13">
-        <v>46164009</v>
-      </c>
-      <c r="I52" s="13">
-        <v>77331441</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11">
+        <v>40021380952</v>
+      </c>
+      <c r="F53" s="11">
+        <v>45851469880</v>
+      </c>
+      <c r="G53" s="11">
+        <v>88541809</v>
+      </c>
+      <c r="H53" s="11">
+        <v>212027024</v>
+      </c>
+      <c r="I53" s="11">
+        <v>126566595</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="11">
-        <v>40021380952</v>
-      </c>
-      <c r="G53" s="11">
-        <v>45851469880</v>
-      </c>
-      <c r="H53" s="11">
-        <v>88541809</v>
-      </c>
-      <c r="I53" s="11">
-        <v>212027024</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C54" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="13"/>
-      <c r="E54" s="13" t="s">
-        <v>13</v>
+      <c r="E54" s="13">
+        <v>677173333</v>
       </c>
       <c r="F54" s="13">
-        <v>677173333</v>
+        <v>4587100000</v>
       </c>
       <c r="G54" s="13">
-        <v>4587100000</v>
+        <v>5547999</v>
       </c>
       <c r="H54" s="13">
-        <v>5547999</v>
+        <v>8955768</v>
       </c>
       <c r="I54" s="13">
-        <v>8955768</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8241196</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -1633,55 +1638,55 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11">
+        <v>25190497914</v>
+      </c>
+      <c r="F56" s="11">
+        <v>26670110145</v>
+      </c>
+      <c r="G56" s="11">
+        <v>45722271</v>
+      </c>
+      <c r="H56" s="11">
+        <v>77845682</v>
+      </c>
+      <c r="I56" s="11">
+        <v>81383809</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="11">
-        <v>25190497914</v>
-      </c>
-      <c r="G56" s="11">
-        <v>26670110145</v>
-      </c>
-      <c r="H56" s="11">
-        <v>45722271</v>
-      </c>
-      <c r="I56" s="11">
-        <v>77845682</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="C57" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
-        <v>13</v>
+      <c r="E57" s="13">
+        <v>38068375000</v>
       </c>
       <c r="F57" s="13">
-        <v>38068375000</v>
+        <v>39609000000</v>
       </c>
       <c r="G57" s="13">
-        <v>39609000000</v>
+        <v>73166225</v>
       </c>
       <c r="H57" s="13">
-        <v>73166225</v>
+        <v>193603926</v>
       </c>
       <c r="I57" s="13">
-        <v>193603926</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>136060707</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1691,7 +1696,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1701,7 +1706,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1711,9 +1716,9 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1733,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1743,9 +1748,9 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -1755,127 +1760,127 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="11">
+        <v>-259875</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-335341</v>
+      </c>
+      <c r="G64" s="11">
+        <v>-456677</v>
+      </c>
+      <c r="H64" s="11">
+        <v>-1018870</v>
+      </c>
+      <c r="I64" s="11">
+        <v>-1065697</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="11">
-        <v>-259875</v>
-      </c>
-      <c r="G64" s="11">
-        <v>-335341</v>
-      </c>
-      <c r="H64" s="11">
-        <v>-456677</v>
-      </c>
-      <c r="I64" s="11">
-        <v>-1018870</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
+      <c r="C65" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13">
+        <v>-1783446</v>
+      </c>
+      <c r="F65" s="13">
+        <v>-2486596</v>
+      </c>
+      <c r="G65" s="13">
+        <v>-4508767</v>
+      </c>
+      <c r="H65" s="13">
+        <v>-11568583</v>
+      </c>
+      <c r="I65" s="13">
+        <v>-13253840</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="13">
-        <v>-1783446</v>
-      </c>
-      <c r="G65" s="13">
-        <v>-2486596</v>
-      </c>
-      <c r="H65" s="13">
-        <v>-4508767</v>
-      </c>
-      <c r="I65" s="13">
-        <v>-11568583</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11">
+        <v>-1696187</v>
+      </c>
+      <c r="F66" s="11">
+        <v>-2282483</v>
+      </c>
+      <c r="G66" s="11">
+        <v>-2962374</v>
+      </c>
+      <c r="H66" s="11">
+        <v>-8023597</v>
+      </c>
+      <c r="I66" s="11">
+        <v>-12489051</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="11">
-        <v>-1696187</v>
-      </c>
-      <c r="G66" s="11">
-        <v>-2282483</v>
-      </c>
-      <c r="H66" s="11">
-        <v>-2962374</v>
-      </c>
-      <c r="I66" s="11">
-        <v>-8023597</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C67" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="13"/>
-      <c r="E67" s="13" t="s">
-        <v>13</v>
+      <c r="E67" s="13">
+        <v>-29436</v>
       </c>
       <c r="F67" s="13">
-        <v>-29436</v>
+        <v>-231857</v>
       </c>
       <c r="G67" s="13">
-        <v>-231857</v>
+        <v>-241955</v>
       </c>
       <c r="H67" s="13">
-        <v>-241955</v>
+        <v>-248994</v>
       </c>
       <c r="I67" s="13">
-        <v>-248994</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-197229</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15">
-        <v>0</v>
+        <v>-3768944</v>
       </c>
       <c r="F68" s="15">
-        <v>-3768944</v>
+        <v>-5336277</v>
       </c>
       <c r="G68" s="15">
-        <v>-5336277</v>
+        <v>-8169773</v>
       </c>
       <c r="H68" s="15">
-        <v>-8169773</v>
+        <v>-20860044</v>
       </c>
       <c r="I68" s="15">
-        <v>-20860044</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-27005817</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -1885,79 +1890,79 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11">
+        <v>-6558203</v>
+      </c>
+      <c r="F70" s="11">
+        <v>-7493032</v>
+      </c>
+      <c r="G70" s="11">
+        <v>-12948749</v>
+      </c>
+      <c r="H70" s="11">
+        <v>-32404041</v>
+      </c>
+      <c r="I70" s="11">
+        <v>-30684146</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="11">
-        <v>-6558203</v>
-      </c>
-      <c r="G70" s="11">
-        <v>-7493032</v>
-      </c>
-      <c r="H70" s="11">
-        <v>-12948749</v>
-      </c>
-      <c r="I70" s="11">
-        <v>-32404041</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="C71" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="13"/>
-      <c r="E71" s="13" t="s">
-        <v>13</v>
+      <c r="E71" s="13">
+        <v>-324708</v>
       </c>
       <c r="F71" s="13">
-        <v>-324708</v>
+        <v>-341752</v>
       </c>
       <c r="G71" s="13">
-        <v>-341752</v>
+        <v>-2701877</v>
       </c>
       <c r="H71" s="13">
-        <v>-2701877</v>
+        <v>-5535100</v>
       </c>
       <c r="I71" s="13">
-        <v>-5535100</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3001010</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>0</v>
+        <v>-6882911</v>
       </c>
       <c r="F72" s="15">
-        <v>-6882911</v>
+        <v>-7834784</v>
       </c>
       <c r="G72" s="15">
-        <v>-7834784</v>
+        <v>-15650626</v>
       </c>
       <c r="H72" s="15">
-        <v>-15650626</v>
+        <v>-37939141</v>
       </c>
       <c r="I72" s="15">
-        <v>-37939141</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-33685156</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -1967,9 +1972,9 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -1989,16 +1994,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="19"/>
-      <c r="E75" s="19" t="s">
-        <v>13</v>
+      <c r="E75" s="19">
+        <v>0</v>
       </c>
       <c r="F75" s="19">
         <v>0</v>
@@ -2006,23 +2011,23 @@
       <c r="G75" s="19">
         <v>0</v>
       </c>
-      <c r="H75" s="19">
-        <v>0</v>
+      <c r="H75" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="15"/>
-      <c r="E76" s="15" t="s">
-        <v>13</v>
+      <c r="E76" s="15">
+        <v>0</v>
       </c>
       <c r="F76" s="15">
         <v>0</v>
@@ -2037,29 +2042,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19">
-        <v>0</v>
+        <v>-10651855</v>
       </c>
       <c r="F77" s="19">
-        <v>-10651855</v>
+        <v>-13171061</v>
       </c>
       <c r="G77" s="19">
-        <v>-13171061</v>
+        <v>-23820399</v>
       </c>
       <c r="H77" s="19">
-        <v>-23820399</v>
+        <v>-58799185</v>
       </c>
       <c r="I77" s="19">
-        <v>-58799185</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-60690973</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2069,7 +2074,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2079,7 +2084,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2089,9 +2094,9 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2111,7 +2116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2121,9 +2126,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2133,127 +2138,127 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="11">
+        <v>9508</v>
+      </c>
+      <c r="F84" s="11">
+        <v>171861</v>
+      </c>
+      <c r="G84" s="11">
+        <v>37813</v>
+      </c>
+      <c r="H84" s="11">
+        <v>34959</v>
+      </c>
+      <c r="I84" s="11">
+        <v>582226</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="11">
-        <v>9508</v>
-      </c>
-      <c r="G84" s="11">
-        <v>171861</v>
-      </c>
-      <c r="H84" s="11">
-        <v>37813</v>
-      </c>
-      <c r="I84" s="11">
-        <v>34959</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
+      <c r="C85" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13">
+        <v>2318533</v>
+      </c>
+      <c r="F85" s="13">
+        <v>3055904</v>
+      </c>
+      <c r="G85" s="13">
+        <v>6349285</v>
+      </c>
+      <c r="H85" s="13">
+        <v>5210793</v>
+      </c>
+      <c r="I85" s="13">
+        <v>5374969</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="13">
-        <v>2318533</v>
-      </c>
-      <c r="G85" s="13">
-        <v>3055904</v>
-      </c>
-      <c r="H85" s="13">
-        <v>6349285</v>
-      </c>
-      <c r="I85" s="13">
-        <v>5210793</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
+      <c r="C86" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11">
+        <v>1665609</v>
+      </c>
+      <c r="F86" s="11">
+        <v>1523189</v>
+      </c>
+      <c r="G86" s="11">
+        <v>4210575</v>
+      </c>
+      <c r="H86" s="11">
+        <v>9465028</v>
+      </c>
+      <c r="I86" s="11">
+        <v>898404</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="11">
-        <v>1665609</v>
-      </c>
-      <c r="G86" s="11">
-        <v>1523189</v>
-      </c>
-      <c r="H86" s="11">
-        <v>4210575</v>
-      </c>
-      <c r="I86" s="11">
-        <v>9465028</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C87" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="13"/>
-      <c r="E87" s="13" t="s">
-        <v>13</v>
+      <c r="E87" s="13">
+        <v>21352</v>
       </c>
       <c r="F87" s="13">
-        <v>21352</v>
+        <v>180982</v>
       </c>
       <c r="G87" s="13">
-        <v>180982</v>
+        <v>151498</v>
       </c>
       <c r="H87" s="13">
-        <v>151498</v>
+        <v>99260</v>
       </c>
       <c r="I87" s="13">
-        <v>99260</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>121046</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
-        <v>0</v>
+        <v>4015002</v>
       </c>
       <c r="F88" s="15">
-        <v>4015002</v>
+        <v>4931936</v>
       </c>
       <c r="G88" s="15">
-        <v>4931936</v>
+        <v>10749171</v>
       </c>
       <c r="H88" s="15">
-        <v>10749171</v>
+        <v>14810040</v>
       </c>
       <c r="I88" s="15">
-        <v>14810040</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6976645</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -2263,79 +2268,79 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11">
+        <v>11553765</v>
+      </c>
+      <c r="F90" s="11">
+        <v>10909344</v>
+      </c>
+      <c r="G90" s="11">
+        <v>17936142</v>
+      </c>
+      <c r="H90" s="11">
+        <v>14908307</v>
+      </c>
+      <c r="I90" s="11">
+        <v>14771560</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="11">
-        <v>11553765</v>
-      </c>
-      <c r="G90" s="11">
-        <v>10909344</v>
-      </c>
-      <c r="H90" s="11">
-        <v>17936142</v>
-      </c>
-      <c r="I90" s="11">
-        <v>14908307</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="C91" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
-        <v>13</v>
+      <c r="E91" s="13">
+        <v>284386</v>
       </c>
       <c r="F91" s="13">
-        <v>284386</v>
+        <v>133556</v>
       </c>
       <c r="G91" s="13">
-        <v>133556</v>
+        <v>2704229</v>
       </c>
       <c r="H91" s="13">
-        <v>2704229</v>
+        <v>5481157</v>
       </c>
       <c r="I91" s="13">
-        <v>5481157</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>457245</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>0</v>
+        <v>11838151</v>
       </c>
       <c r="F92" s="15">
-        <v>11838151</v>
+        <v>11042900</v>
       </c>
       <c r="G92" s="15">
-        <v>11042900</v>
+        <v>20640371</v>
       </c>
       <c r="H92" s="15">
-        <v>20640371</v>
+        <v>20389464</v>
       </c>
       <c r="I92" s="15">
-        <v>20389464</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15228805</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -2345,9 +2350,9 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
@@ -2367,26 +2372,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19">
-        <v>0</v>
+        <v>15853153</v>
       </c>
       <c r="F95" s="19">
-        <v>15853153</v>
+        <v>15974836</v>
       </c>
       <c r="G95" s="19">
-        <v>15974836</v>
+        <v>31389542</v>
       </c>
       <c r="H95" s="19">
-        <v>31389542</v>
+        <v>35199504</v>
       </c>
       <c r="I95" s="19">
-        <v>35199504</v>
+        <v>22205450</v>
       </c>
     </row>
   </sheetData>
